--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eco_x\Downloads\Phone Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF93A2-0975-4D12-BEAC-7347F34AB394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CAD2F6-E7BA-4B33-9DB5-210E57604FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8ADF1EA-8CC5-4C57-B17E-5279ED80BB0E}"/>
   </bookViews>
@@ -605,7 +605,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -725,10 +725,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>33</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
-        <v>46066</v>
+        <v>46071</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>36</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>44</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
-        <v>46073</v>
+        <v>46076</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>48</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>52</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="16" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>53</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>57</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>46079</v>
+        <v>46080</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>60</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>46080</v>
+        <v>46083</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>62</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>46083</v>
+        <v>46084</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>66</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>46084</v>
+        <v>46085</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>46085</v>
+        <v>46086</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>73</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="23" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <v>46086</v>
+        <v>46087</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>76</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <v>46087</v>
+        <v>46090</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>79</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <v>46090</v>
+        <v>46091</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>83</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <v>46091</v>
+        <v>46092</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>86</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="27" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <v>46092</v>
+        <v>46093</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>88</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <v>46093</v>
+        <v>46094</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>91</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <v>46094</v>
+        <v>46097</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>94</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <v>46097</v>
+        <v>46098</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>97</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="31" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <v>46098</v>
+        <v>46099</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>100</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <v>46099</v>
+        <v>46100</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>103</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="33" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <v>46100</v>
+        <v>46101</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>106</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="34" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
-        <v>46101</v>
+        <v>46104</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>110</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <v>46104</v>
+        <v>46105</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>114</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
-        <v>46105</v>
+        <v>46106</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>117</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
-        <v>46106</v>
+        <v>46107</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>118</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="38" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
-        <v>46107</v>
+        <v>46108</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>121</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
-        <v>46108</v>
+        <v>46111</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>124</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
-        <v>46111</v>
+        <v>46112</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>127</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
-        <v>46112</v>
+        <v>46113</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>130</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
-        <v>46113</v>
+        <v>46114</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>133</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <v>46114</v>
+        <v>46118</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>136</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
-        <v>46118</v>
+        <v>46119</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>139</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
-        <v>46119</v>
+        <v>46120</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>142</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
-        <v>46120</v>
+        <v>46121</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>145</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
-        <v>46121</v>
+        <v>46122</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>148</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
-        <v>46122</v>
+        <v>46125</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>151</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
-        <v>46125</v>
+        <v>46126</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>154</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
-        <v>46126</v>
+        <v>46127</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>158</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
-        <v>46127</v>
+        <v>46128</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>161</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
-        <v>46128</v>
+        <v>46129</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>165</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
-        <v>46129</v>
+        <v>46132</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>169</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
-        <v>46132</v>
+        <v>46133</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>171</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
-        <v>46133</v>
+        <v>46134</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>174</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
-        <v>46134</v>
+        <v>46135</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>177</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
-        <v>46135</v>
+        <v>46136</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>180</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
-        <v>46136</v>
+        <v>46139</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>183</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
-        <v>46139</v>
+        <v>46140</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>5</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
-        <v>46140</v>
+        <v>46141</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>9</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
-        <v>46141</v>
+        <v>46142</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>13</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
-        <v>46142</v>
+        <v>46146</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>17</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
-        <v>46146</v>
+        <v>46147</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>20</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
-        <v>46147</v>
+        <v>46148</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
-        <v>46148</v>
+        <v>46149</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>27</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
-        <v>46149</v>
+        <v>46150</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>30</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
-        <v>46150</v>
+        <v>46153</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>33</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="68" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
-        <v>46153</v>
+        <v>46154</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>36</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
-        <v>46154</v>
+        <v>46155</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>40</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
-        <v>46155</v>
+        <v>46156</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>44</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
-        <v>46156</v>
+        <v>46157</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>48</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
-        <v>46157</v>
+        <v>46160</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>52</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
-        <v>46160</v>
+        <v>46161</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>53</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
-        <v>46161</v>
+        <v>46162</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>57</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
-        <v>46162</v>
+        <v>46163</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>60</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
-        <v>46163</v>
+        <v>46164</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>62</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
-        <v>46164</v>
+        <v>46168</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>66</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
-        <v>46168</v>
+        <v>46169</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>69</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
-        <v>46169</v>
+        <v>46170</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>73</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
-        <v>46170</v>
+        <v>46171</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>76</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
-        <v>46171</v>
+        <v>46174</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>79</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
-        <v>46174</v>
+        <v>46175</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>83</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
-        <v>46175</v>
+        <v>46176</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>86</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
-        <v>46176</v>
+        <v>46177</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>88</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
-        <v>46177</v>
+        <v>46178</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>91</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
-        <v>46178</v>
+        <v>46181</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>94</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
-        <v>46181</v>
+        <v>46182</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>97</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
-        <v>46182</v>
+        <v>46183</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>100</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
-        <v>46183</v>
+        <v>46184</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>103</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
-        <v>46184</v>
+        <v>46185</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>106</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
-        <v>46185</v>
+        <v>46188</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>110</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
-        <v>46188</v>
+        <v>46189</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>114</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
-        <v>46189</v>
+        <v>46190</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>117</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
-        <v>46190</v>
+        <v>46191</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>118</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
-        <v>46191</v>
+        <v>46192</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>121</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
-        <v>46192</v>
+        <v>46195</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>124</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
-        <v>46195</v>
+        <v>46196</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>127</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
-        <v>46196</v>
+        <v>46197</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>130</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
-        <v>46197</v>
+        <v>46198</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>133</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
-        <v>46198</v>
+        <v>46199</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>136</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
-        <v>46199</v>
+        <v>46202</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>139</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
-        <v>46202</v>
+        <v>46203</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>142</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
-        <v>46203</v>
+        <v>46204</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>145</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
-        <v>46204</v>
+        <v>46205</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>148</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
-        <v>46205</v>
+        <v>46206</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>151</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
-        <v>46206</v>
+        <v>46209</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>154</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
-        <v>46209</v>
+        <v>46210</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>158</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
-        <v>46210</v>
+        <v>46211</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>161</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="109" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
-        <v>46211</v>
+        <v>46212</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>165</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
-        <v>46212</v>
+        <v>46213</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>169</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
-        <v>46213</v>
+        <v>46216</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>171</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
-        <v>46216</v>
+        <v>46217</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>174</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
-        <v>46217</v>
+        <v>46218</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>177</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
-        <v>46218</v>
+        <v>46219</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>180</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
-        <v>46219</v>
+        <v>46220</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>183</v>

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eco_x\Downloads\Phone Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CAD2F6-E7BA-4B33-9DB5-210E57604FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37B56E-BF35-4053-A48E-ECF05B896C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8ADF1EA-8CC5-4C57-B17E-5279ED80BB0E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="186">
   <si>
     <t>Fecha</t>
   </si>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92574074-88DB-4446-9761-6F1FEA06A5BF}">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A115"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,14 +1135,14 @@
       <c r="A4" s="14">
         <v>46058</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -1156,16 +1156,16 @@
         <v>46059</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>17</v>
@@ -1176,16 +1176,16 @@
         <v>46062</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>20</v>
@@ -1196,17 +1196,15 @@
         <v>46063</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1215,16 +1213,18 @@
       <c r="A8" s="14">
         <v>46064</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1234,13 +1234,13 @@
         <v>46065</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -1253,17 +1253,17 @@
       <c r="A10" s="14">
         <v>46066</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>33</v>
@@ -1274,16 +1274,16 @@
         <v>46071</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>36</v>
@@ -1293,17 +1293,17 @@
       <c r="A12" s="14">
         <v>46072</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>40</v>
@@ -1313,17 +1313,17 @@
       <c r="A13" s="14">
         <v>46073</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>44</v>
@@ -1333,14 +1333,14 @@
       <c r="A14" s="14">
         <v>46076</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>51</v>
@@ -1353,17 +1353,17 @@
       <c r="A15" s="14">
         <v>46077</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>52</v>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>52</v>
@@ -1374,13 +1374,13 @@
         <v>46078</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>56</v>
@@ -1393,17 +1393,15 @@
       <c r="A17" s="14">
         <v>46079</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" t="s">
+        <v>61</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>57</v>
@@ -1414,14 +1412,16 @@
         <v>46080</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>60</v>
@@ -1432,16 +1432,16 @@
         <v>46083</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>62</v>
@@ -1452,16 +1452,16 @@
         <v>46084</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>66</v>
@@ -1472,17 +1472,15 @@
         <v>46085</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="K21" s="6" t="s">
         <v>69</v>
       </c>
@@ -1492,15 +1490,17 @@
         <v>46086</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="K22" s="6" t="s">
         <v>73</v>
       </c>
@@ -1510,16 +1510,16 @@
         <v>46087</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>76</v>
@@ -1530,16 +1530,14 @@
         <v>46090</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>79</v>
@@ -1550,10 +1548,10 @@
         <v>46091</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
@@ -1568,12 +1566,14 @@
         <v>46092</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>85</v>
       </c>
@@ -1586,16 +1586,14 @@
         <v>46093</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>86</v>
@@ -1606,14 +1604,16 @@
         <v>46094</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>88</v>
@@ -1624,13 +1624,13 @@
         <v>46097</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>85</v>
@@ -1644,13 +1644,13 @@
         <v>46098</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>85</v>
@@ -1664,13 +1664,13 @@
         <v>46099</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>85</v>
@@ -1684,16 +1684,16 @@
         <v>46100</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>100</v>
@@ -1704,16 +1704,16 @@
         <v>46101</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>103</v>
@@ -1724,13 +1724,13 @@
         <v>46104</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>113</v>
@@ -1744,16 +1744,16 @@
         <v>46105</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>110</v>
@@ -1764,16 +1764,16 @@
         <v>46106</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>114</v>
@@ -1784,16 +1784,16 @@
         <v>46107</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>17</v>
@@ -1804,16 +1804,14 @@
         <v>46108</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>20</v>
@@ -1824,14 +1822,16 @@
         <v>46111</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="E39" s="4" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>24</v>
@@ -1842,16 +1842,16 @@
         <v>46112</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>27</v>
@@ -1862,16 +1862,16 @@
         <v>46113</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>30</v>
@@ -1882,13 +1882,13 @@
         <v>46114</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>8</v>
@@ -1902,16 +1902,16 @@
         <v>46118</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>52</v>
@@ -1922,16 +1922,16 @@
         <v>46119</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>117</v>
@@ -1942,16 +1942,14 @@
         <v>46120</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>44</v>
@@ -1962,14 +1960,16 @@
         <v>46121</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E46" s="4" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>118</v>
@@ -1980,16 +1980,16 @@
         <v>46122</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>48</v>
@@ -2000,16 +2000,16 @@
         <v>46125</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>53</v>
@@ -2020,16 +2020,16 @@
         <v>46126</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>60</v>
@@ -2040,55 +2040,53 @@
         <v>46127</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>46128</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>46129</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
         <v>168</v>
       </c>
       <c r="K52" s="6" t="s">
@@ -2100,12 +2098,14 @@
         <v>46132</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E53" s="4" t="s">
         <v>168</v>
       </c>
@@ -2118,16 +2118,16 @@
         <v>46133</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>130</v>
@@ -2138,16 +2138,16 @@
         <v>46134</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>133</v>
@@ -2158,16 +2158,16 @@
         <v>46135</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>136</v>
@@ -2178,50 +2178,50 @@
         <v>46136</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>46139</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>184</v>
+      <c r="B58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>46140</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>5</v>
+      <c r="B59" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2229,30 +2229,30 @@
         <v>46141</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>46142</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>13</v>
+      <c r="B61" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>16</v>
@@ -2263,16 +2263,16 @@
         <v>46146</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2280,16 +2280,16 @@
         <v>46147</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2297,45 +2297,45 @@
         <v>46148</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>46149</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>27</v>
+      <c r="B65" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>46150</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>16</v>
@@ -2345,17 +2345,17 @@
       <c r="A67" s="14">
         <v>46153</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>33</v>
+      <c r="B67" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
@@ -2363,16 +2363,16 @@
         <v>46154</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F68" s="11"/>
     </row>
@@ -2380,48 +2380,48 @@
       <c r="A69" s="14">
         <v>46155</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>40</v>
+      <c r="B69" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>46156</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>44</v>
+      <c r="B70" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>46157</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>48</v>
+      <c r="B71" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>51</v>
@@ -2431,17 +2431,17 @@
       <c r="A72" s="14">
         <v>46160</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>52</v>
+      <c r="B72" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2449,13 +2449,13 @@
         <v>46161</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>56</v>
@@ -2465,17 +2465,15 @@
       <c r="A74" s="14">
         <v>46162</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>56</v>
+      <c r="B74" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2483,14 +2481,16 @@
         <v>46163</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="5">
-        <v>0</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2498,16 +2498,16 @@
         <v>46164</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2515,16 +2515,16 @@
         <v>46168</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,48 +2532,48 @@
         <v>46169</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>46170</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E79" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>46171</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2581,16 +2581,14 @@
         <v>46174</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2598,10 +2596,10 @@
         <v>46175</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
@@ -2613,12 +2611,14 @@
         <v>46176</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E83" s="4" t="s">
         <v>85</v>
       </c>
@@ -2628,16 +2628,14 @@
         <v>46177</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2645,14 +2643,16 @@
         <v>46178</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="E85" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2660,13 +2660,13 @@
         <v>46181</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>85</v>
@@ -2677,13 +2677,13 @@
         <v>46182</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>85</v>
@@ -2694,13 +2694,13 @@
         <v>46183</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>85</v>
@@ -2711,16 +2711,16 @@
         <v>46184</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2728,16 +2728,16 @@
         <v>46185</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2745,13 +2745,13 @@
         <v>46188</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>113</v>
@@ -2762,16 +2762,16 @@
         <v>46189</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2779,16 +2779,16 @@
         <v>46190</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2796,16 +2796,16 @@
         <v>46191</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2813,16 +2813,14 @@
         <v>46192</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2830,14 +2828,16 @@
         <v>46195</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="E96" s="4" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2845,16 +2845,16 @@
         <v>46196</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2862,16 +2862,16 @@
         <v>46197</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2879,13 +2879,13 @@
         <v>46198</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>8</v>
@@ -2896,16 +2896,16 @@
         <v>46199</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2913,16 +2913,16 @@
         <v>46202</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2930,16 +2930,14 @@
         <v>46203</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2947,14 +2945,16 @@
         <v>46204</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E103" s="4" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2962,16 +2962,16 @@
         <v>46205</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2979,16 +2979,16 @@
         <v>46206</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2996,16 +2996,16 @@
         <v>46209</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3013,49 +3013,47 @@
         <v>46210</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>46211</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>46212</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E109" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3064,12 +3062,14 @@
         <v>46213</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D110" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E110" s="4" t="s">
         <v>168</v>
       </c>
@@ -3079,16 +3079,16 @@
         <v>46216</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3096,16 +3096,16 @@
         <v>46217</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3113,16 +3113,16 @@
         <v>46218</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3130,34 +3130,20 @@
         <v>46219</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="14">
-        <v>46220</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="A115" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E74" xr:uid="{CEDA76FD-D543-4218-8821-AEE3CE2CEA86}"/>
